--- a/02_MasterWifoMannheim/99_Backup/Course145.xlsx
+++ b/02_MasterWifoMannheim/99_Backup/Course145.xlsx
@@ -1,139 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailunimannheimde-my.sharepoint.com/personal/pstapf_mail_uni-mannheim_de/Documents/Uni/Master/Masterarbeit/Course_Suggestion/02_MasterWifoMannheim/03_Courses/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="11_2B59D2BFD32051265F59281159E1A8726E83FB60" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{531300FF-B4AB-4653-8565-DAC5AE44251F}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
-  <si>
-    <t>Module</t>
-  </si>
-  <si>
-    <t>MKT 614 Marketing Communication</t>
-  </si>
-  <si>
-    <t>Contents</t>
-  </si>
-  <si>
-    <t>This module is designed to introduce students into the field of marketing communications and communication management. The emphasis will be on the role of advertising and other promotional mix elements in the integrated marketing communications program of an organization. Acontemporary marketing including advertising, direct marketing, the media. Moreover, the process by which integrated marketing communications programs are planned, developed and executed as well as the various factors and considerations that influence this process are examined.</t>
-  </si>
-  <si>
-    <t>Learning outcomes</t>
-  </si>
-  <si>
-    <t>Students are able to develop a marketing communications program, which requires an understanding of the overall marketing process, customer behavior, communications theory, and how to set goals, objectives and budgets.</t>
-  </si>
-  <si>
-    <t>Prerequisites</t>
-  </si>
-  <si>
-    <t>Obligatory registrationFurther Information on registration</t>
-  </si>
-  <si>
-    <t>Courses Hours per weekSelf-study Lecture 2 6</t>
-  </si>
-  <si>
-    <t>ECTS</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>Form of assessment</t>
-  </si>
-  <si>
-    <t>Written exam (60 min.)</t>
-  </si>
-  <si>
-    <t>Preliminary course work -</t>
-  </si>
-  <si>
-    <t>Lecturer/Person in charge</t>
-  </si>
-  <si>
-    <t>Prof. Dr. Florian Stahl</t>
-  </si>
-  <si>
-    <t>Duration of module</t>
-  </si>
-  <si>
-    <t>1 semester</t>
-  </si>
-  <si>
-    <t>Offering</t>
-  </si>
-  <si>
-    <t>Spring semester</t>
-  </si>
-  <si>
-    <t>Language</t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>Program-specific educational goals</t>
-  </si>
-  <si>
-    <t>Grade</t>
-  </si>
-  <si>
-    <t>graded</t>
-  </si>
-  <si>
-    <t>Range of application</t>
-  </si>
-  <si>
-    <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Bus. Edu., M.Sc. Bus. Inf., M.A. K&amp;W, M.Sc. Econ., LL.M.</t>
-  </si>
-  <si>
-    <t>Marketing and Sales (MKT)</t>
-  </si>
-  <si>
-    <t>Not Taken</t>
-  </si>
-  <si>
-    <t>MKT 530, MKT 532</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -148,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -472,145 +420,213 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
+    <row r="1">
+      <c r="A1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" t="s">
-        <v>26</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>MKT 614 Marketing Communication</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Contents</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>This module is designed to introduce students into the field of marketing communications and communication management. The emphasis will be on the role of advertising and other promotional mix elements in the integrated marketing communications program of an organization. Acontemporary marketing including advertising, direct marketing, the media. Moreover, the process by which integrated marketing communications programs are planned, developed and executed as well as the various factors and considerations that influence this process are examined.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Learning outcomes</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Students are able to develop a marketing communications program, which requires an understanding of the overall marketing process, customer behavior, communications theory, and how to set goals, objectives and budgets.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Not Taken</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>MKT 530, MKT 532</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Prerequisites</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Marketing and Sales (MKT)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Obligatory registrationFurther Information on registration</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Courses Hours per weekSelf-study Lecture 2 6</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ECTS</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Form of assessment</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Written exam (60 min.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Preliminary course work -</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Lecturer/Person in charge</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Prof. Dr. Florian Stahl</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Duration of module</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>1 semester</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Offering</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>SSS</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Language</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Program-specific educational goals</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Grade</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>graded</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Range of application</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Bus. Edu., M.Sc. Bus. Inf., M.A. K&amp;W, M.Sc. Econ., LL.M.</t>
+        </is>
       </c>
     </row>
   </sheetData>
